--- a/PFF_Data/qb_cluster_profiles.xlsx
+++ b/PFF_Data/qb_cluster_profiles.xlsx
@@ -486,52 +486,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07000000000000001</v>
+        <v>0.163125</v>
       </c>
       <c r="C2">
-        <v>0.048</v>
+        <v>0.07125000000000001</v>
       </c>
       <c r="D2">
-        <v>3.645</v>
+        <v>4.85</v>
       </c>
       <c r="E2">
-        <v>11.14</v>
+        <v>13.4875</v>
       </c>
       <c r="F2">
-        <v>8.863333333333333</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G2">
-        <v>3.713333333333333</v>
+        <v>4.553125</v>
       </c>
       <c r="H2">
-        <v>3.441666666666667</v>
+        <v>2.396875</v>
       </c>
       <c r="I2">
-        <v>71.80833333333334</v>
+        <v>75.76875</v>
       </c>
       <c r="J2">
-        <v>0.3071666666666666</v>
+        <v>0.343125</v>
       </c>
       <c r="K2">
-        <v>8.188333333333334</v>
+        <v>9.35</v>
       </c>
       <c r="L2">
-        <v>0.2928333333333333</v>
+        <v>0.304375</v>
       </c>
       <c r="M2">
-        <v>15.70166666666667</v>
+        <v>18.25625</v>
       </c>
       <c r="N2">
-        <v>5.361666666666666</v>
+        <v>3.378125</v>
       </c>
       <c r="O2">
-        <v>71.375</v>
+        <v>82.38437500000001</v>
       </c>
       <c r="P2">
-        <v>70.49666666666667</v>
+        <v>81.05</v>
       </c>
       <c r="Q2">
-        <v>59.55666666666666</v>
+        <v>65.65625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -539,52 +539,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1690909090909091</v>
+        <v>0.1075471698113208</v>
       </c>
       <c r="C3">
-        <v>0.07136363636363637</v>
+        <v>0.04622641509433963</v>
       </c>
       <c r="D3">
-        <v>5.109090909090908</v>
+        <v>3.656603773584906</v>
       </c>
       <c r="E3">
-        <v>31.06818181818182</v>
+        <v>10.94150943396226</v>
       </c>
       <c r="F3">
-        <v>11.61363636363636</v>
+        <v>9.054716981132074</v>
       </c>
       <c r="G3">
-        <v>5.745454545454546</v>
+        <v>3.869811320754717</v>
       </c>
       <c r="H3">
-        <v>5.031818181818182</v>
+        <v>3.675471698113208</v>
       </c>
       <c r="I3">
-        <v>64.69545454545454</v>
+        <v>71.40566037735849</v>
       </c>
       <c r="J3">
-        <v>0.3777272727272727</v>
+        <v>0.3115094339622642</v>
       </c>
       <c r="K3">
-        <v>9.577272727272726</v>
+        <v>8.049056603773586</v>
       </c>
       <c r="L3">
-        <v>0.3486363636363636</v>
+        <v>0.300377358490566</v>
       </c>
       <c r="M3">
-        <v>20.09545454545455</v>
+        <v>15.4188679245283</v>
       </c>
       <c r="N3">
-        <v>6.986363636363635</v>
+        <v>5.928301886792452</v>
       </c>
       <c r="O3">
-        <v>68.2090909090909</v>
+        <v>70.54528301886792</v>
       </c>
       <c r="P3">
-        <v>63.67272727272727</v>
+        <v>69.80377358490566</v>
       </c>
       <c r="Q3">
-        <v>67.78636363636363</v>
+        <v>58.86981132075471</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -592,52 +592,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1296875</v>
+        <v>0.2761111111111111</v>
       </c>
       <c r="C4">
-        <v>0.0978125</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="D4">
-        <v>5.703125</v>
+        <v>6.088888888888889</v>
       </c>
       <c r="E4">
-        <v>44.028125</v>
+        <v>57.63055555555555</v>
       </c>
       <c r="F4">
-        <v>9.143750000000001</v>
+        <v>10.18888888888889</v>
       </c>
       <c r="G4">
-        <v>3.2375</v>
+        <v>4.5</v>
       </c>
       <c r="H4">
-        <v>3.765625</v>
+        <v>3.775</v>
       </c>
       <c r="I4">
-        <v>69.471875</v>
+        <v>69.79722222222222</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.3258333333333334</v>
       </c>
       <c r="K4">
-        <v>7.16875</v>
+        <v>9.105555555555556</v>
       </c>
       <c r="L4">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="M4">
-        <v>20.696875</v>
+        <v>16.28611111111111</v>
       </c>
       <c r="N4">
-        <v>4.709375</v>
+        <v>5.525</v>
       </c>
       <c r="O4">
-        <v>65.9875</v>
+        <v>78.25555555555555</v>
       </c>
       <c r="P4">
-        <v>61.9875</v>
+        <v>71.31666666666666</v>
       </c>
       <c r="Q4">
-        <v>66.59375</v>
+        <v>75.40833333333333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -645,52 +645,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1456410256410256</v>
+        <v>0.246875</v>
       </c>
       <c r="C5">
-        <v>0.0794871794871795</v>
+        <v>0.08937500000000001</v>
       </c>
       <c r="D5">
-        <v>5.676923076923077</v>
+        <v>5.2125</v>
       </c>
       <c r="E5">
-        <v>39.95641025641026</v>
+        <v>38.528125</v>
       </c>
       <c r="F5">
-        <v>9.430769230769231</v>
+        <v>9.731249999999999</v>
       </c>
       <c r="G5">
-        <v>4.712820512820513</v>
+        <v>3.86875</v>
       </c>
       <c r="H5">
-        <v>2.707692307692307</v>
+        <v>4.246875</v>
       </c>
       <c r="I5">
-        <v>74.40769230769232</v>
+        <v>66.71875</v>
       </c>
       <c r="J5">
-        <v>0.3374358974358974</v>
+        <v>0.32125</v>
       </c>
       <c r="K5">
-        <v>9.097435897435897</v>
+        <v>7.26875</v>
       </c>
       <c r="L5">
-        <v>0.3107692307692307</v>
+        <v>0.375625</v>
       </c>
       <c r="M5">
-        <v>16.57692307692308</v>
+        <v>22.040625</v>
       </c>
       <c r="N5">
-        <v>4.089743589743589</v>
+        <v>5.1375</v>
       </c>
       <c r="O5">
-        <v>83.81794871794872</v>
+        <v>61.6</v>
       </c>
       <c r="P5">
-        <v>79.24615384615385</v>
+        <v>57.63125</v>
       </c>
       <c r="Q5">
-        <v>72.44871794871794</v>
+        <v>65.16875</v>
       </c>
     </row>
   </sheetData>
